--- a/Csv/AllType/Data所有Class类型.xlsx
+++ b/Csv/AllType/Data所有Class类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
@@ -1572,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1830,7 +1830,7 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>

--- a/Csv/AllType/Data所有Class类型.xlsx
+++ b/Csv/AllType/Data所有Class类型.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="110">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -375,17 +375,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>z</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cure</t>
-  </si>
-  <si>
     <t>Hand</t>
   </si>
   <si>
@@ -408,10 +397,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>j</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -441,6 +426,26 @@
   </si>
   <si>
     <t>Data所有Class类型.xlsx</t>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -853,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1128,91 +1133,94 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="C4">
-        <v>123.4</v>
+        <v>123.4567</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="R4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y4">
-        <v>999</v>
+        <v>111</v>
       </c>
       <c r="Z4">
-        <v>888</v>
+        <v>222</v>
       </c>
       <c r="AA4">
-        <v>777</v>
-      </c>
-      <c r="AB4">
-        <v>666</v>
+        <v>333</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>106</v>
       </c>
       <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>81</v>
+        <v>4</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="AG4">
-        <v>7</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>81</v>
+        <v>10</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="AK4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AL4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AM4">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AN4" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AO4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP4">
-        <v>2.2999999999999998</v>
+        <v>96</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.15">
@@ -1249,35 +1257,26 @@
       <c r="O5" t="s">
         <v>87</v>
       </c>
-      <c r="P5">
-        <v>1.3</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R5">
-        <v>1.4</v>
+      <c r="P5" t="s">
+        <v>106</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>82</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y5">
         <v>888</v>
       </c>
-      <c r="Z5">
-        <v>777</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>57</v>
+      <c r="Z5" t="s">
+        <v>106</v>
       </c>
       <c r="AE5">
         <v>2</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AG5">
         <v>8</v>
@@ -1286,19 +1285,19 @@
         <v>82</v>
       </c>
       <c r="AK5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AM5">
         <v>1.4</v>
       </c>
       <c r="AN5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AO5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AP5">
         <v>3.4</v>
@@ -1348,10 +1347,16 @@
         <v>83</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>57</v>
+        <v>91</v>
+      </c>
+      <c r="Y6">
+        <v>777</v>
+      </c>
+      <c r="Z6">
+        <v>666</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>106</v>
       </c>
       <c r="AE6">
         <v>3</v>
@@ -1370,102 +1375,88 @@
         <v>88</v>
       </c>
       <c r="AM6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AN6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C7">
-        <v>123.4567</v>
+        <v>123.4</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7">
-        <v>1.5</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>90</v>
-      </c>
-      <c r="R7">
-        <v>1.6</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y7">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="Y7" t="s">
+        <v>106</v>
       </c>
       <c r="Z7">
-        <v>222</v>
+        <v>888</v>
       </c>
       <c r="AA7">
-        <v>333</v>
+        <v>777</v>
       </c>
       <c r="AB7">
-        <v>444</v>
-      </c>
-      <c r="AE7">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>84</v>
+        <v>666</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="AG7">
-        <v>10</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>84</v>
+        <v>7</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="AK7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="AL7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AM7">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AN7" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AP7">
-        <v>5.6</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.15">
@@ -1515,7 +1506,7 @@
         <v>85</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Y8">
         <v>888</v>
@@ -1551,13 +1542,13 @@
         <v>1.7</v>
       </c>
       <c r="AN8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AO8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AP8">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -1593,7 +1584,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1688,7 +1679,7 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1721,13 +1712,13 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1735,7 +1726,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -1760,7 +1751,7 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -1790,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>

--- a/Csv/AllType/Data所有Class类型.xlsx
+++ b/Csv/AllType/Data所有Class类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255"/>
+    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="112">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>VarLong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -446,6 +442,18 @@
   <si>
     <t>##</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref:Card.Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//只能引用键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -858,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -908,28 +916,28 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="2">
         <v>1</v>
@@ -938,28 +946,28 @@
         <v>2</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="Q1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U1" s="2">
         <v>1</v>
@@ -968,167 +976,167 @@
         <v>2</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AA1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AG1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AI1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="AN1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AO1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="AQ1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="N3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="AD3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="AO3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.15">
@@ -1136,49 +1144,49 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4000</v>
+        <v>10005</v>
       </c>
       <c r="C4">
         <v>123.4567</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I4">
         <v>1.5</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" t="s">
         <v>88</v>
-      </c>
-      <c r="O4" t="s">
-        <v>89</v>
       </c>
       <c r="P4">
         <v>1.5</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y4">
         <v>111</v>
@@ -1190,37 +1198,37 @@
         <v>333</v>
       </c>
       <c r="AB4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE4">
         <v>4</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG4">
         <v>10</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AM4">
         <v>1.6</v>
       </c>
       <c r="AN4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AP4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.15">
@@ -1234,70 +1242,70 @@
         <v>123.45</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>1.3</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y5">
         <v>888</v>
       </c>
       <c r="Z5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE5">
         <v>2</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG5">
         <v>8</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM5">
         <v>1.4</v>
       </c>
       <c r="AN5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AO5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AP5">
         <v>3.4</v>
@@ -1314,40 +1322,40 @@
         <v>123.456</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6">
         <v>1.4</v>
       </c>
       <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="L6" t="s">
-        <v>90</v>
-      </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P6">
         <v>1.4</v>
       </c>
       <c r="Q6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y6">
         <v>777</v>
@@ -1356,29 +1364,29 @@
         <v>666</v>
       </c>
       <c r="AA6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE6">
         <v>3</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AK6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM6">
         <v>1.4</v>
       </c>
       <c r="AN6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1392,32 +1400,32 @@
         <v>123.4</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>1.2</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V7" s="4"/>
       <c r="Y7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z7">
         <v>888</v>
@@ -1429,31 +1437,31 @@
         <v>666</v>
       </c>
       <c r="AE7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG7">
         <v>7</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM7">
         <v>1.3</v>
       </c>
       <c r="AN7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AO7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AP7">
         <v>2.2999999999999998</v>
@@ -1470,43 +1478,43 @@
         <v>123.45677999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8">
         <v>1.6</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P8">
         <v>1.6</v>
       </c>
       <c r="Q8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R8">
         <v>1.6</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y8">
         <v>888</v>
@@ -1524,28 +1532,28 @@
         <v>5</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG8">
         <v>11</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AM8">
         <v>1.7</v>
       </c>
       <c r="AN8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AP8">
         <v>5.6</v>
@@ -1562,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1584,7 +1592,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1613,10 +1621,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1624,21 +1632,27 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1649,112 +1663,112 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1806,24 +1820,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/AllType/Data所有Class类型.xlsx
+++ b/Csv/AllType/Data所有Class类型.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
     <sheet name="define" sheetId="2" r:id="rId2"/>
     <sheet name="define1" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="define_Lson" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="214">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -448,12 +448,401 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ref:Card.Card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>//只能引用键</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstFloat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量浮点值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float=3.141527</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string=Hello World</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brary</t>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自残</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oneself</t>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renounce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommondEnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##enum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LsonAllClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lson数据</t>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[int,long,string,enum]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarLong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长整型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarFloat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file:../../../Code/Assets:prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarBool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarEnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card.CardElement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSingleClass</t>
+  </si>
+  <si>
+    <t>类类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarListBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarListClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;LSingleClass&gt;</t>
+  </si>
+  <si>
+    <t>Class列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarListCardElem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;Card.CardElement&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elem列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//跨命名空间引用必须带命名空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarDictBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;int,string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础类型字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key:[int,long,string,enum]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarDictEnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;long,Card.CardElement&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举类型字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarDictClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;string,LSingleClass&gt;</t>
+  </si>
+  <si>
+    <t>类类型字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSingleClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##class</t>
+  </si>
+  <si>
+    <t>LInherit1</t>
+  </si>
+  <si>
+    <t>变量名</t>
+  </si>
+  <si>
+    <t>变量类型</t>
+  </si>
+  <si>
+    <t>变量注释</t>
+  </si>
+  <si>
+    <t>检查规则</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>LInherit2</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1637,11 +2026,8 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>110</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1769,6 +2155,31 @@
       </c>
       <c r="C15" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1779,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1840,6 +2251,136 @@
         <v>43</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1849,14 +2390,349 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Csv/AllType/Data所有Class类型.xlsx
+++ b/Csv/AllType/Data所有Class类型.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6345" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
-    <sheet name="define" sheetId="2" r:id="rId2"/>
-    <sheet name="define1" sheetId="6" r:id="rId3"/>
+    <sheet name="sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="141">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -335,180 +335,176 @@
     <t>Extract</t>
   </si>
   <si>
+    <t>Armor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Handack</t>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//跨命名空间引用必须带命名空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;string,SingleClass&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;int,string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data所有Class类型.xlsx</t>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//只能引用键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstFloat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量浮点值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float=3.141527</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string=Hello World</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brary</t>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自残</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oneself</t>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Renounce</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Armor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>Handack</t>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//跨命名空间引用必须带命名空间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;string,SingleClass&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;int,string&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data所有Class类型.xlsx</t>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//只能引用键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstString</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量字符串</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstFloat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量浮点值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float=3.141527</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string=Hello World</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牌库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brary</t>
-  </si>
-  <si>
-    <t>手牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自残</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oneself</t>
-  </si>
-  <si>
-    <t>治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cure</t>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renounce</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>抽牌</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -555,6 +551,18 @@
   <si>
     <t>d</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>自残</t>
+  </si>
+  <si>
+    <t>手牌攻击</t>
+  </si>
+  <si>
+    <t>控制</t>
   </si>
 </sst>
 </file>
@@ -967,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1216,7 +1224,7 @@
         <v>57</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>58</v>
@@ -1257,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>1.5</v>
@@ -1269,25 +1277,25 @@
         <v>53</v>
       </c>
       <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" t="s">
         <v>86</v>
-      </c>
-      <c r="O4" t="s">
-        <v>87</v>
       </c>
       <c r="P4">
         <v>1.5</v>
       </c>
       <c r="Q4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="R4" t="s">
-        <v>101</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="Y4">
         <v>111</v>
@@ -1299,37 +1307,37 @@
         <v>333</v>
       </c>
       <c r="AB4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE4">
         <v>4</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AG4">
         <v>10</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM4">
         <v>1.6</v>
       </c>
       <c r="AN4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.15">
@@ -1348,44 +1356,44 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>80</v>
+      <c r="F5" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>1.3</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
         <v>56</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y5">
         <v>888</v>
       </c>
       <c r="Z5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE5">
         <v>2</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG5">
         <v>8</v>
@@ -1394,19 +1402,19 @@
         <v>80</v>
       </c>
       <c r="AK5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM5">
         <v>1.4</v>
       </c>
       <c r="AN5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP5">
         <v>3.4</v>
@@ -1429,22 +1437,22 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>1.4</v>
       </c>
       <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P6">
         <v>1.4</v>
@@ -1453,10 +1461,10 @@
         <v>56</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y6">
         <v>777</v>
@@ -1465,29 +1473,29 @@
         <v>666</v>
       </c>
       <c r="AA6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE6">
         <v>3</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AG6" t="s">
         <v>56</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AK6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM6">
         <v>1.4</v>
       </c>
       <c r="AN6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1506,29 +1514,29 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>79</v>
+      <c r="F7" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>1.2</v>
       </c>
       <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
         <v>100</v>
-      </c>
-      <c r="O7" t="s">
-        <v>100</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>101</v>
       </c>
       <c r="Z7">
         <v>888</v>
@@ -1540,10 +1548,10 @@
         <v>666</v>
       </c>
       <c r="AE7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AG7">
         <v>7</v>
@@ -1552,10 +1560,10 @@
         <v>79</v>
       </c>
       <c r="AK7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM7">
         <v>1.3</v>
@@ -1587,37 +1595,37 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>1.6</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s">
         <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P8">
         <v>1.6</v>
       </c>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R8">
         <v>1.6</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y8">
         <v>888</v>
@@ -1635,28 +1643,28 @@
         <v>5</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AG8">
         <v>11</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM8">
         <v>1.7</v>
       </c>
       <c r="AN8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP8">
         <v>5.6</v>
@@ -1673,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1694,7 +1702,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1712,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1734,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1757,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1771,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1785,7 +1793,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1799,7 +1807,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1807,13 +1815,13 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1827,7 +1835,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1841,12 +1849,12 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -1855,10 +1863,10 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1866,13 +1874,13 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -1889,7 +1897,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1897,7 +1905,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -1905,24 +1913,24 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
         <v>106</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
         <v>108</v>
-      </c>
-      <c r="B17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1949,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1996,33 +2004,33 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2033,95 +2041,95 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="3">
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3">
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/AllType/Data所有Class类型.xlsx
+++ b/Csv/AllType/Data所有Class类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6345"/>
+    <workbookView xWindow="-15" yWindow="75" windowWidth="28830" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="137">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -241,13 +241,6 @@
     <t>list&lt;string&gt;</t>
   </si>
   <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;SingleClass&gt;</t>
-  </si>
-  <si>
     <t>dict&lt;int,long&gt;</t>
   </si>
   <si>
@@ -326,32 +319,202 @@
   <si>
     <t>五号</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Handack</t>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//跨命名空间引用必须带命名空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;string,SingleClass&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;int,string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data所有Class类型.xlsx</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//只能引用键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstFloat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量浮点值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float=3.141527</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string=Hello World</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brary</t>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自残</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oneself</t>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renounce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Attack</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Extract</t>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
+    <t>变量注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommondEnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##enum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarListCardElem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -359,210 +522,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>Handack</t>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//跨命名空间引用必须带命名空间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;string,SingleClass&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;int,string&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>自残</t>
+  </si>
+  <si>
+    <t>手牌攻击</t>
+  </si>
+  <si>
+    <t>控制</t>
   </si>
   <si>
     <t>SingleClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data所有Class类型.xlsx</t>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//只能引用键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstString</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量字符串</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstFloat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量浮点值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float=3.141527</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string=Hello World</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牌库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brary</t>
-  </si>
-  <si>
-    <t>手牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自残</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oneself</t>
-  </si>
-  <si>
-    <t>治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cure</t>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renounce</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量注释</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommondEnum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarListCardElem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;string&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>自残</t>
-  </si>
-  <si>
-    <t>手牌攻击</t>
-  </si>
-  <si>
-    <t>控制</t>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3/V4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>]]</t>
+  </si>
+  <si>
+    <t>list&lt;SingleClass&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -973,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G6" sqref="G6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -988,36 +972,41 @@
     <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="2.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.25" customWidth="1"/>
-    <col min="23" max="23" width="2.875" customWidth="1"/>
-    <col min="24" max="24" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.375" customWidth="1"/>
-    <col min="33" max="33" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.375" customWidth="1"/>
-    <col min="35" max="35" width="7.375" customWidth="1"/>
-    <col min="36" max="36" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" customWidth="1"/>
+    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.25" customWidth="1"/>
+    <col min="24" max="24" width="2.875" customWidth="1"/>
+    <col min="25" max="25" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.375" customWidth="1"/>
+    <col min="34" max="34" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.375" customWidth="1"/>
+    <col min="36" max="36" width="7.375" customWidth="1"/>
+    <col min="37" max="37" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.125" customWidth="1"/>
+    <col min="44" max="45" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1046,150 +1035,117 @@
         <v>43</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" s="2">
-        <v>1</v>
-      </c>
-      <c r="L1" s="2">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="2">
+        <v>1</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="2">
-        <v>1</v>
-      </c>
-      <c r="V1" s="2">
-        <v>2</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -1217,138 +1173,148 @@
       <c r="I3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>10005</v>
+        <v>1000</v>
       </c>
       <c r="C4">
-        <v>123.4567</v>
+        <v>123.4</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>1.2</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4">
-        <v>1.5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>85</v>
+      <c r="M4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" t="s">
+        <v>132</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P4">
         <v>1.5</v>
       </c>
-      <c r="Q4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R4" t="s">
-        <v>100</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>81</v>
+      <c r="T4" t="s">
+        <v>135</v>
       </c>
       <c r="V4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z4">
+        <v>999</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF4">
+        <v>11</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO4">
+        <v>1.7</v>
+      </c>
+      <c r="AP4" t="s">
         <v>88</v>
       </c>
-      <c r="Y4">
-        <v>111</v>
-      </c>
-      <c r="Z4">
-        <v>222</v>
-      </c>
-      <c r="AA4">
-        <v>333</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE4">
+      <c r="AQ4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS4">
+        <v>1.2</v>
+      </c>
+      <c r="AT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="AF4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG4">
-        <v>10</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM4">
-        <v>1.6</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
       <c r="B5">
-        <v>2000</v>
+        <v>10005</v>
       </c>
       <c r="C5">
-        <v>123.45</v>
+        <v>123.4567</v>
       </c>
       <c r="D5" t="s">
         <v>75</v>
@@ -1357,228 +1323,284 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I5">
+        <v>1.2</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5">
         <v>1.3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="T5" t="s">
+        <v>135</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y5">
-        <v>888</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE5">
+      <c r="X5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z5">
+        <v>111</v>
+      </c>
+      <c r="AA5">
+        <v>222</v>
+      </c>
+      <c r="AB5">
+        <v>333</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO5">
+        <v>1.6</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="AF5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG5">
-        <v>8</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM5">
-        <v>1.4</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP5">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
-      </c>
       <c r="B6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="C6">
-        <v>123.456</v>
+        <v>123.45</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="G6" t="s">
+        <v>133</v>
       </c>
       <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>1.2</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>135</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I6">
-        <v>1.4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="X6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z6">
+        <v>888</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF6">
+        <v>11</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6">
+        <v>1.7</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR6" t="s">
         <v>87</v>
       </c>
-      <c r="O6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6">
-        <v>1.4</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y6">
-        <v>777</v>
-      </c>
-      <c r="Z6">
-        <v>666</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE6">
+      <c r="AS6">
+        <v>5.6</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="AF6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH6" s="4"/>
-      <c r="AK6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM6">
-        <v>1.4</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>1</v>
-      </c>
       <c r="B7">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="C7">
-        <v>123.4</v>
+        <v>123.456</v>
       </c>
       <c r="D7" t="s">
         <v>74</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
       </c>
       <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7">
+        <v>1.4</v>
+      </c>
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="I7">
-        <v>1.2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" t="s">
+        <v>132</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="P7">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>135</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>100</v>
+        <v>78</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>135</v>
       </c>
       <c r="Z7">
-        <v>888</v>
+        <v>777</v>
       </c>
       <c r="AA7">
-        <v>777</v>
-      </c>
-      <c r="AB7">
         <v>666</v>
       </c>
-      <c r="AE7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG7">
-        <v>7</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>99</v>
+      <c r="AD7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" t="s">
+        <v>135</v>
       </c>
       <c r="AL7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM7">
-        <v>1.3</v>
+        <v>82</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>132</v>
       </c>
       <c r="AN7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP7">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+      <c r="AO7">
+        <v>1.4</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1589,85 +1611,118 @@
         <v>123.45677999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>1.6</v>
       </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
       <c r="K8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" t="s">
+        <v>132</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P8">
         <v>1.6</v>
       </c>
       <c r="Q8" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8">
+        <v>1.6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>135</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z8">
+        <v>888</v>
+      </c>
+      <c r="AA8">
+        <v>777</v>
+      </c>
+      <c r="AB8">
+        <v>666</v>
+      </c>
+      <c r="AC8">
+        <v>555</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF8">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH8">
+        <v>11</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO8">
+        <v>1.7</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR8" t="s">
         <v>87</v>
       </c>
-      <c r="R8">
-        <v>1.6</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y8">
-        <v>888</v>
-      </c>
-      <c r="Z8">
-        <v>777</v>
-      </c>
-      <c r="AA8">
-        <v>666</v>
-      </c>
-      <c r="AB8">
-        <v>555</v>
-      </c>
-      <c r="AE8">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG8">
-        <v>11</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM8">
-        <v>1.7</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP8">
+      <c r="AS8">
         <v>5.6</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1757,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1720,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1742,16 +1797,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1765,7 +1820,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1779,7 +1834,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1793,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1807,7 +1862,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1815,13 +1870,13 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1835,7 +1890,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1849,12 +1904,12 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -1863,10 +1918,10 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1874,13 +1929,13 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -1897,15 +1952,15 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -1913,24 +1968,24 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2004,132 +2059,132 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3">
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B17" s="3">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3">
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/AllType/Data所有Class类型.xlsx
+++ b/Csv/AllType/Data所有Class类型.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="-15" yWindow="75" windowWidth="28830" windowHeight="6255"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="7" r:id="rId1"/>
+    <sheet name="#_data" sheetId="7" r:id="rId1"/>
     <sheet name="sheet" sheetId="2" r:id="rId2"/>
     <sheet name="sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
@@ -960,7 +960,7 @@
   <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:J6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Csv/AllType/Data所有Class类型.xlsx
+++ b/Csv/AllType/Data所有Class类型.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="-15" yWindow="75" windowWidth="28830" windowHeight="6255"/>
   </bookViews>
   <sheets>
-    <sheet name="#_data" sheetId="7" r:id="rId1"/>
+    <sheet name="#data" sheetId="7" r:id="rId1"/>
     <sheet name="sheet" sheetId="2" r:id="rId2"/>
     <sheet name="sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
@@ -957,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU8"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,40 +973,41 @@
     <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.25" customWidth="1"/>
-    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.25" customWidth="1"/>
-    <col min="24" max="24" width="2.875" customWidth="1"/>
-    <col min="25" max="25" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.375" customWidth="1"/>
-    <col min="34" max="34" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.375" customWidth="1"/>
-    <col min="36" max="36" width="7.375" customWidth="1"/>
-    <col min="37" max="37" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.125" customWidth="1"/>
-    <col min="44" max="45" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.25" customWidth="1"/>
+    <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.25" customWidth="1"/>
+    <col min="25" max="25" width="2.875" customWidth="1"/>
+    <col min="26" max="26" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.375" customWidth="1"/>
+    <col min="35" max="35" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.375" customWidth="1"/>
+    <col min="37" max="37" width="7.375" customWidth="1"/>
+    <col min="38" max="38" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.125" customWidth="1"/>
+    <col min="45" max="46" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1037,74 +1038,74 @@
       <c r="J1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>1</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>2</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
@@ -1126,26 +1127,26 @@
       <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -1173,38 +1174,38 @@
       <c r="I3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1235,78 +1236,78 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="L4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O4" t="s">
         <v>132</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>84</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1.5</v>
       </c>
-      <c r="T4" t="s">
-        <v>135</v>
-      </c>
-      <c r="V4" s="4" t="s">
+      <c r="R4" t="s">
+        <v>135</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z4">
+      <c r="Y4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA4">
         <v>999</v>
       </c>
-      <c r="AD4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF4">
+      <c r="AB4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG4">
         <v>11</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AI4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ4" s="3"/>
+      <c r="AM4" t="s">
         <v>84</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>132</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>84</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>1.7</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>88</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>133</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>80</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>1.2</v>
       </c>
-      <c r="AT4" t="b">
+      <c r="AU4" t="b">
         <v>0</v>
       </c>
-      <c r="AU4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="AV4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1337,75 +1338,75 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>53</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>82</v>
       </c>
-      <c r="M5" t="s">
-        <v>135</v>
-      </c>
       <c r="N5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" t="s">
         <v>132</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>83</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1.3</v>
       </c>
-      <c r="T5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V5" s="4" t="s">
+      <c r="R5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X5" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z5">
+      <c r="Y5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA5">
         <v>111</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>222</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>333</v>
       </c>
       <c r="AD5" t="s">
         <v>135</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>4</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AI5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ5" s="4"/>
+      <c r="AM5" t="s">
         <v>83</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>132</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>83</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>1.6</v>
       </c>
-      <c r="AP5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="AQ5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1436,78 +1437,78 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="L6" t="s">
-        <v>135</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="M6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O6" t="s">
         <v>132</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>81</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1.5</v>
       </c>
-      <c r="T6" t="s">
-        <v>135</v>
-      </c>
-      <c r="V6" s="4" t="s">
+      <c r="R6" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X6" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z6">
+      <c r="Y6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA6">
         <v>888</v>
       </c>
-      <c r="AD6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF6">
+      <c r="AB6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG6">
         <v>11</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AI6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ6" s="3"/>
+      <c r="AM6" t="s">
         <v>84</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>84</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>1.7</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>88</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>132</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>87</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>5.6</v>
       </c>
-      <c r="AT6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="AU6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1535,72 +1536,72 @@
       <c r="I7">
         <v>1.4</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>84</v>
       </c>
-      <c r="M7" t="s">
-        <v>135</v>
-      </c>
       <c r="N7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" t="s">
         <v>132</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>82</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1.4</v>
       </c>
-      <c r="T7" t="s">
-        <v>135</v>
-      </c>
-      <c r="V7" s="4" t="s">
+      <c r="R7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z7">
+      <c r="Y7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA7">
         <v>777</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>666</v>
       </c>
-      <c r="AD7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF7">
+      <c r="AC7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG7">
         <v>3</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AH7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL7" t="s">
+      <c r="AI7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ7" s="4"/>
+      <c r="AM7" t="s">
         <v>82</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>132</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>82</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>1.4</v>
       </c>
-      <c r="AT7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="AQ7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1629,99 +1630,99 @@
         <v>1.6</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>80</v>
       </c>
       <c r="M8" t="s">
         <v>135</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>132</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>84</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1.6</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>132</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>84</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1.6</v>
       </c>
-      <c r="T8" t="s">
-        <v>135</v>
-      </c>
-      <c r="V8" s="4" t="s">
+      <c r="U8" t="s">
+        <v>135</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X8" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z8">
+      <c r="Y8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA8">
         <v>888</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>777</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>666</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>555</v>
       </c>
-      <c r="AD8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF8">
+      <c r="AE8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG8">
         <v>5</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AH8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>11</v>
       </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AJ8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL8" t="s">
+      <c r="AK8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM8" t="s">
         <v>84</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>132</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>84</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>1.7</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>88</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>132</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>87</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>5.6</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>135</v>
       </c>
     </row>
